--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1221e315f04cdea4/Games/Equilibrium/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1230" documentId="14_{1D930022-276E-4669-BF78-F3F4D090395B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD3C5A81-B0CA-4549-8B62-1BD3F79B360D}"/>
+  <xr:revisionPtr revIDLastSave="1463" documentId="14_{1D930022-276E-4669-BF78-F3F4D090395B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3EB1ECD-971E-43C7-8BB2-B5BC7ACF4B48}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{E38F4F22-B4D8-47C1-8A5C-4BD3FDA1BD0A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{E38F4F22-B4D8-47C1-8A5C-4BD3FDA1BD0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Soldier" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="4" hidden="1">Aerotheurge!$B$1:$D$18</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">Geomancer!$B$1:$D$17</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">Geomancer!$B$1:$D$14</definedName>
     <definedName name="ExternalData_1" localSheetId="5" hidden="1">Hydrosophist!$B$1:$D$18</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">Pyrokinetic!$B$1:$D$18</definedName>
   </definedNames>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="282">
   <si>
     <t>Tier</t>
   </si>
@@ -273,12 +273,6 @@
     <t>Rock Hammer</t>
   </si>
   <si>
-    <t>Your arm extends into a stone ram. A target in close range takes 2d8 points of bludgeoning damage and is pushed 3m away from you.</t>
-  </si>
-  <si>
-    <t>Infuse your arm or a weapon with earth, creating a hard rock exterior that deals an extra 1d8 points of bludgeoning damage.</t>
-  </si>
-  <si>
     <t>Lacerate</t>
   </si>
   <si>
@@ -360,15 +354,9 @@
     <t>Motion</t>
   </si>
   <si>
-    <t>The illusion can now move. You can choose the movement according to your will. It cannot do damage.</t>
-  </si>
-  <si>
     <t>Juxtaposition</t>
   </si>
   <si>
-    <t>If the illusion is within mid range of you, you can exchange places.</t>
-  </si>
-  <si>
     <t>Spell Casting</t>
   </si>
   <si>
@@ -387,21 +375,9 @@
     <t>You can communicate telepathically with a creature you touched or located, as long as you remain in distant range. The creature can respond to you freely, as long as you keep the line of communication.</t>
   </si>
   <si>
-    <t>Void Chains</t>
-  </si>
-  <si>
-    <t>The range of the chain increases to short.</t>
-  </si>
-  <si>
     <t>Exhausted</t>
   </si>
   <si>
-    <t>The range of the chain increases to medium.</t>
-  </si>
-  <si>
-    <t>Restrained</t>
-  </si>
-  <si>
     <t>Srb4</t>
   </si>
   <si>
@@ -534,9 +510,6 @@
     <t>Flick your finger and shoot a small sand bullet in mid-range, dealing 2d4 points of piercing damage.</t>
   </si>
   <si>
-    <t>Extend your arm and perform an arch throw, tossing a rock at mid-range. The rock shatters in pieces upon impact, dealing 3d8 bludgeoning damage to the target.</t>
-  </si>
-  <si>
     <t>Create a large wall made of earth. The wall takes a combined space of 3 cubed meters.</t>
   </si>
   <si>
@@ -558,51 +531,24 @@
     <t>Darkness</t>
   </si>
   <si>
-    <t xml:space="preserve">Bleed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rigor Mortis </t>
-  </si>
-  <si>
     <t>Soul Syphon</t>
   </si>
   <si>
-    <t>Target an opponent in close-range. Their joints swell, causing 1d8 points of bleeding damage and slowing them.</t>
-  </si>
-  <si>
     <t>Rot</t>
   </si>
   <si>
-    <t>Make its bones crack, dealing 3d6 points of bleeding damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Touch the target and cause its skin to rot, dealing 1d8 + 1d10 further points of bleeding damage. </t>
-  </si>
-  <si>
     <t>Bone Shaker</t>
   </si>
   <si>
     <t>Dark Ray</t>
   </si>
   <si>
-    <t>Extend your palm, unleashing a dark ray. Everyone in a straight line in mid-range takes 2d10 points of bleeding damage.</t>
-  </si>
-  <si>
-    <t>Extend your palm, unleashing a ray of pure darkness. Everyone and everything in a straight line in mid-range takes 3d10 points of bleeding damage. If they die, their remains disintegrate.</t>
-  </si>
-  <si>
     <t>Disintegration</t>
   </si>
   <si>
     <t>Apocalypse</t>
   </si>
   <si>
-    <t>Unleash the darkness within. Every creature in close range in every direction takes 4d12 bleeding damage and becomes Frightened.</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Shad4</t>
   </si>
   <si>
@@ -765,9 +711,6 @@
     <t xml:space="preserve">You can feel the tremble of the earth, detecting ground motion in medium range. </t>
   </si>
   <si>
-    <t>A creature that tries to enter the protected area has to succeed in a contest (willpower vs willpower) against you.</t>
-  </si>
-  <si>
     <t>Long Range</t>
   </si>
   <si>
@@ -789,44 +732,198 @@
     <t>The protected object / area cannot be scried by the locate spell. If an attempt is indeed made, you are immediately aware of it (you do not know any details other than that).</t>
   </si>
   <si>
-    <t>Conjure an incorporeal chain from your arm that can be hurled to a target in close range. The target needs to succeed in a contest (willpower vs willpower) or gain one of the following mental conditions: enraged, fascinated, frightened, sorrowful, or confused. The void chain can be used to enhance a melee or a finesse attack.</t>
-  </si>
-  <si>
-    <t>The creature must succeed in an additional contest (willpower vs willpower) against you or become restrained.</t>
-  </si>
-  <si>
-    <t>The creature must succeed in an additional contest (willpower vs willpower) against you or become exhausted.</t>
-  </si>
-  <si>
-    <t>Emit a chilling aura, imposing disadvantage on attacks made against you from a touch range.</t>
-  </si>
-  <si>
-    <t>Create a small radius black cloud in medium range that swallows all light within it. You can use your intelligence ability points to move the cloud (1 point for 2m of movement).</t>
-  </si>
-  <si>
-    <t>Scar yourself for 1d4 points of vitality and cause 1d6 points of bleeding damage to a target in mid-range.</t>
-  </si>
-  <si>
-    <t>If the creature is in touch range, you can breathe in its soul, absorbing the bleeding damage into your vitality points.</t>
-  </si>
-  <si>
-    <t>The sad melody of a bell sounds as you approach. Scar yourself for 1d4 points of vitality. Creatures in medium range must succeed in a contest (willpower vs willpower) or become frightened.</t>
-  </si>
-  <si>
-    <t>Cause 1d6 points of bleeding damage to a target in mid-range.</t>
+    <t>Rigor Mortis</t>
+  </si>
+  <si>
+    <t>The target's joints swell, causing a further 1d8 bleeding damage and slowing them.</t>
+  </si>
+  <si>
+    <t>Touch the target and cause its skin to rot, causing 1d8 points of bleeding damage.</t>
+  </si>
+  <si>
+    <t>Make the target's bones crack, dealing 1d12 points of bludgeoning damage.</t>
+  </si>
+  <si>
+    <t>You can breathe in the target's soul, absorbing the bleeding damage into your vitality points.</t>
+  </si>
+  <si>
+    <t>Repose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This can only be applied on a dead creature. Its corpse is preserved from decay and its soul does not leave its host. As long as the evocation remains active, the creature cannot be resurrected as an eternal. </t>
+  </si>
+  <si>
+    <t>Enforced</t>
+  </si>
+  <si>
+    <t>The dark ray passes through the target and hits everyone in the straight line.</t>
+  </si>
+  <si>
+    <t>Enhance the damage by 2d8 points of bludgeoning damage. If the target dies, their remains disintegrate.</t>
+  </si>
+  <si>
+    <t>Unleash the darkness within. The evocation affects a medium range circle instead of a line. In cases it is not clear whether a target is hidden behind another target, the rules benefit the defendants.</t>
+  </si>
+  <si>
+    <t>Extend your palm, unleashing a dark ray. The first target in a straight line in short range takes 1d10 points of bleeding damage.</t>
+  </si>
+  <si>
+    <t>The range is increased to medium.</t>
+  </si>
+  <si>
+    <t>The sad melody of a bell sounds as you approach. Scar yourself for 1d4 points of vitality. Creatures in short range must succeed in a contest (willpower vs willpower) or become frightened.</t>
+  </si>
+  <si>
+    <t>The range is increased to long.</t>
+  </si>
+  <si>
+    <t>Create a small radius black cloud around you that swallows all light within it. The range of the cloud is automatically enhanced along with the toll range. Darkvision, thermal vision and tremorsense are the only types of vision that can pierce the darkness.</t>
+  </si>
+  <si>
+    <t>Emit a chilling aura. Creatures frightened by the toll start to bleed, taking 1d6 points bleeding damage.</t>
+  </si>
+  <si>
+    <t>Nightmare</t>
+  </si>
+  <si>
+    <t>Fear makes way for confusion to kick in. The confused condition is added to toll (make one contest for both effects).</t>
+  </si>
+  <si>
+    <t>Shadow Scythe</t>
+  </si>
+  <si>
+    <t>Absorb</t>
+  </si>
+  <si>
+    <t>You can absorb one spell or evocation affecting the creature, replenishing 1d8 points of sanity.</t>
+  </si>
+  <si>
+    <t>Fear</t>
+  </si>
+  <si>
+    <t>The target needs to succeed in a contest (willpower vs willpower) or become frightened.</t>
+  </si>
+  <si>
+    <t>The target needs to succeed in a contest (willpower vs willpower) or become sorrowful.</t>
+  </si>
+  <si>
+    <t>Sorrow</t>
+  </si>
+  <si>
+    <t>Void Chain</t>
+  </si>
+  <si>
+    <t>The target needs to succeed in a contest (willpower vs willpower) or be deprived of its lightvision.</t>
+  </si>
+  <si>
+    <t>Black Pupils</t>
+  </si>
+  <si>
+    <t>Bleed</t>
+  </si>
+  <si>
+    <t>The target also takes 1d8 points of bleeding damage.</t>
+  </si>
+  <si>
+    <t>Fascinated</t>
+  </si>
+  <si>
+    <t>Confused</t>
+  </si>
+  <si>
+    <t>Conjure an incorporeal chain from your arm. The weapon has the normal attributes of a chain. It disappears the moment it leaves your possession. The void can instead be used to enhance a corporeal weapon; in this case void chain does not grant any bonuses, but its enhancements can be used on the melee or finesse attacks made with the weapon. You cannot use the melee of finesse attack enhancements unless the void chain is applied to an actual weapon.</t>
+  </si>
+  <si>
+    <t>Conjure an incorporeal scythe made of pure darkness. The weapon has the normal attributes of a scythe. It disappears the moment it leaves your possession. The shadow can instead be used to enhance a melee corporeal weapon; in this case shadow scythe does not grant any bonuses, but its enhancements can be used on the melee or finesse attacks made with the weapon.  You cannot use the melee of finesse attack enhancements unless the shadow scythe is applied to an actual weapon.</t>
+  </si>
+  <si>
+    <t>Conjure a rock hammer in your hands. The weapon has the normal attributes of a weapon from the hammer weapon list. It disappears the moment it leaves your possession. The rock can instead be used to enhance a physical weapon; in this case it adds 1d8 points of bludgeoning damage to the damage roll.</t>
+  </si>
+  <si>
+    <t>Your attacks push the target 3m away from you.</t>
+  </si>
+  <si>
+    <t>You can use the hammer to toss rocks in medium range. The rocks shatters in pieces upon impact, dealing 2d8 bludgeoning damage to the target.</t>
+  </si>
+  <si>
+    <t>Cripple the target, slowing it for one round.</t>
+  </si>
+  <si>
+    <t>Each time your hammer hits, it emits a cloud of sand in the target’s eyes to blind them until the beginning of your next turn.</t>
+  </si>
+  <si>
+    <t>Sand Burst</t>
+  </si>
+  <si>
+    <t>Spell Thief</t>
+  </si>
+  <si>
+    <t>You gain immediate knowledge of 1 spell of evocation the target of the attack knows. You can use it at the normal cost in this or your next turn.</t>
+  </si>
+  <si>
+    <t>Srb6</t>
+  </si>
+  <si>
+    <t>Spirits guide you, allowing you to react out of your turn. The points utilized are expended from your next round.</t>
+  </si>
+  <si>
+    <t>Spiritual Presence</t>
+  </si>
+  <si>
+    <t>Blink</t>
+  </si>
+  <si>
+    <t>Briefly become incorporeal, causing one physical attack to fail.</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>The creature must succeed in an additional contest (willpower vs willpower) against you or fall asleep. The creature cannot be woken up by sound or other normal means, but any amount of damage will wake it up. If left undisturbed, it will wake up 8 hours later.</t>
+  </si>
+  <si>
+    <t>Screech</t>
+  </si>
+  <si>
+    <t>The spirits trapped in the chain emit a screeching sound. The target must succeed in a contest (willpower vs dexterity/intelligence) or become deafened.</t>
+  </si>
+  <si>
+    <t>The target needs to succeed in a contest (willpower vs intelligence/willpower) or become fascinated.</t>
+  </si>
+  <si>
+    <t>The target needs to succeed in a contest (willpower vs intelligence/willpower) or become confused.</t>
+  </si>
+  <si>
+    <t>The creature must succeed in an additional contest (willpower vs strength/willpower) against you or become exhausted.</t>
+  </si>
+  <si>
+    <t>A creature that tries to enter the protected area has to succeed in a contest (willpower vs strength/willpower) against you.</t>
+  </si>
+  <si>
+    <t>You can exchange places with the illusion.</t>
+  </si>
+  <si>
+    <t>The illusion can now move. You can choose the movement according to your will, substracting it from movement points. It cannot do damage.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -903,13 +1000,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -918,78 +1015,139 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1310,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73876B4-AA02-4454-BE9A-BFDBF6E2660A}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1359,10 +1517,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1376,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1387,10 +1545,10 @@
         <v>28</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1401,10 +1559,10 @@
         <v>28</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1415,10 +1573,10 @@
         <v>28</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1432,7 +1590,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1457,10 +1615,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -1468,13 +1626,13 @@
         <v>20</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1488,7 +1646,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1502,21 +1660,21 @@
         <v>4</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="18">
         <v>1</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>82</v>
+      <c r="C14" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1527,10 +1685,10 @@
         <v>28</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1541,10 +1699,10 @@
         <v>29</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1555,10 +1713,10 @@
         <v>29</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1569,10 +1727,10 @@
         <v>29</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1583,10 +1741,10 @@
         <v>30</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -1597,10 +1755,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1611,10 +1769,10 @@
         <v>29</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1625,10 +1783,10 @@
         <v>29</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1639,15 +1797,15 @@
         <v>29</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>48</v>
@@ -1661,7 +1819,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>28</v>
@@ -1670,12 +1828,12 @@
         <v>8</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>29</v>
@@ -1684,12 +1842,12 @@
         <v>7</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>29</v>
@@ -1698,12 +1856,12 @@
         <v>9</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>29</v>
@@ -1717,21 +1875,21 @@
     </row>
     <row r="29" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>29</v>
@@ -1740,12 +1898,12 @@
         <v>13</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>25</v>
@@ -1754,25 +1912,25 @@
         <v>15</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1782,7 +1940,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1808,189 +1966,189 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B13" s="10">
         <v>2</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="D14" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>28</v>
@@ -1999,68 +2157,68 @@
         <v>8</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>30</v>
@@ -2074,77 +2232,77 @@
     </row>
     <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B21" s="21">
         <v>1</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>216</v>
+        <v>203</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>29</v>
@@ -2153,21 +2311,21 @@
         <v>14</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B85FF9-86EC-4C22-B5CB-F0DFC46ECD98}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2175,7 +2333,7 @@
     <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" style="7" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="162" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="110.77734375" style="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2188,153 +2346,153 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="40" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="25">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="C2" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>227</v>
+      <c r="B4" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="B5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>228</v>
+      <c r="B6" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>229</v>
+        <v>28</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>63</v>
+        <v>38</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>39</v>
+      <c r="B10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="18">
+        <v>2</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>28</v>
@@ -2342,92 +2500,92 @@
       <c r="C12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>232</v>
+      <c r="D12" s="56" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="18">
-        <v>2</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>232</v>
+      <c r="B14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>43</v>
+        <v>57</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>234</v>
+      <c r="B18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2435,13 +2593,13 @@
         <v>35</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2449,129 +2607,157 @@
         <v>35</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="18">
+        <v>1</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>35</v>
+      <c r="A22" s="32" t="s">
+        <v>36</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>35</v>
+      <c r="A23" s="32" t="s">
+        <v>36</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="C26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="18">
-        <v>1</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="B27" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="B28" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>159</v>
+      <c r="D29" s="58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3318,17 +3504,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC7DE65-14C3-4FCB-AB20-29688080B09E}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.88671875" style="6"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="129" customWidth="1"/>
+    <col min="4" max="4" width="129" style="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -3341,257 +3527,351 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="40" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="25">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="30">
+        <v>1</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="30">
+        <v>1</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="37" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="32">
-        <v>1</v>
-      </c>
-      <c r="C2" s="25" t="s">
+      <c r="B20" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="B9" s="33">
-        <v>1</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="B14" s="33">
-        <v>2</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>179</v>
+      <c r="D24" s="48" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3B1B7F-D03C-426F-B339-7A28C1FF95FF}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.109375" style="7"/>
     <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="157.109375" customWidth="1"/>
+    <col min="4" max="4" width="157.109375" style="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3604,316 +3884,372 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="40" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="25">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="37" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="25">
+        <v>1</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B15" s="25">
         <v>1</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C15" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="26" t="s">
+      <c r="D21" s="42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="28" t="s">
+      <c r="C22" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26" s="60" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="26">
-        <v>1</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="26">
-        <v>1</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>237</v>
+      <c r="C27" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1221e315f04cdea4/Games/Equilibrium/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1463" documentId="14_{1D930022-276E-4669-BF78-F3F4D090395B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3EB1ECD-971E-43C7-8BB2-B5BC7ACF4B48}"/>
+  <xr:revisionPtr revIDLastSave="1609" documentId="14_{1D930022-276E-4669-BF78-F3F4D090395B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FCD42C7-4619-4CD8-9967-45274F6193A8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{E38F4F22-B4D8-47C1-8A5C-4BD3FDA1BD0A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{E38F4F22-B4D8-47C1-8A5C-4BD3FDA1BD0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Soldier" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="ExternalData_1" localSheetId="4" hidden="1">Aerotheurge!$B$1:$D$18</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">Geomancer!$B$1:$D$14</definedName>
     <definedName name="ExternalData_1" localSheetId="5" hidden="1">Hydrosophist!$B$1:$D$18</definedName>
-    <definedName name="ExternalData_1" localSheetId="3" hidden="1">Pyrokinetic!$B$1:$D$18</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">Pyrokinetic!$B$1:$D$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="342">
   <si>
     <t>Tier</t>
   </si>
@@ -837,9 +837,6 @@
     <t>Conjure an incorporeal scythe made of pure darkness. The weapon has the normal attributes of a scythe. It disappears the moment it leaves your possession. The shadow can instead be used to enhance a melee corporeal weapon; in this case shadow scythe does not grant any bonuses, but its enhancements can be used on the melee or finesse attacks made with the weapon.  You cannot use the melee of finesse attack enhancements unless the shadow scythe is applied to an actual weapon.</t>
   </si>
   <si>
-    <t>Conjure a rock hammer in your hands. The weapon has the normal attributes of a weapon from the hammer weapon list. It disappears the moment it leaves your possession. The rock can instead be used to enhance a physical weapon; in this case it adds 1d8 points of bludgeoning damage to the damage roll.</t>
-  </si>
-  <si>
     <t>Your attacks push the target 3m away from you.</t>
   </si>
   <si>
@@ -849,9 +846,6 @@
     <t>Cripple the target, slowing it for one round.</t>
   </si>
   <si>
-    <t>Each time your hammer hits, it emits a cloud of sand in the target’s eyes to blind them until the beginning of your next turn.</t>
-  </si>
-  <si>
     <t>Sand Burst</t>
   </si>
   <si>
@@ -904,19 +898,212 @@
   </si>
   <si>
     <t>The illusion can now move. You can choose the movement according to your will, substracting it from movement points. It cannot do damage.</t>
+  </si>
+  <si>
+    <t>Geo8</t>
+  </si>
+  <si>
+    <t>Summon Elemental</t>
+  </si>
+  <si>
+    <t>Slam Attack</t>
+  </si>
+  <si>
+    <t>You summon an earth elemental that can look either solid rock, or muddy and slimy. The elemental has 20 vitality and 0 armor. It is immune to sanity damage.</t>
+  </si>
+  <si>
+    <t>Regeneration</t>
+  </si>
+  <si>
+    <t>The elemental heals for 1d8 of the vitality damage taken.</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>The elemental gains +1 Armor. This talent stacks with itself.</t>
+  </si>
+  <si>
+    <t>Spellcasting</t>
+  </si>
+  <si>
+    <t>You can cast any Geomancer spell you know through the elemental, as if you were there. The cost is equal to the spell's cost +2.</t>
+  </si>
+  <si>
+    <t>Engulf</t>
+  </si>
+  <si>
+    <t>The elemental can engulf a willing creature, protecting it. Any physical damage dealt to a creature is dealt to the elemental instead.</t>
+  </si>
+  <si>
+    <t>Greater Slam</t>
+  </si>
+  <si>
+    <t>The elemental delivers a heavy blow in melee range, dealing 2d6 points of bludgeoning damage.</t>
+  </si>
+  <si>
+    <t>The elemental gains a melee slam attack that deals 1d8 points of bludgeoning damage.</t>
+  </si>
+  <si>
+    <t>Each time your hammer hits, it emits a cloud of sand in the target’s eyes to blind them (Intelligence vs Dexterity contest) until the beginning of your next turn.</t>
+  </si>
+  <si>
+    <t>Pyro1</t>
+  </si>
+  <si>
+    <t>Pyro2</t>
+  </si>
+  <si>
+    <t>Pyro3</t>
+  </si>
+  <si>
+    <t>Pyro4</t>
+  </si>
+  <si>
+    <t>Pyro5</t>
+  </si>
+  <si>
+    <t>Pyro6</t>
+  </si>
+  <si>
+    <t>You can cast any Pyromancer spell you know through the elemental, as if you were there. The cost is equal to the spell's cost +2.</t>
+  </si>
+  <si>
+    <t>Fire Orb</t>
+  </si>
+  <si>
+    <t>Conjure a small flaming scimitar in your hands. The weapon has the normal attributes of a scimitar, but deals fire damage. It disappears the moment it leaves your possession. The flames can instead be used to enhance a physical weapon; in this case it adds 1d8 points of fire damage to the damage roll.</t>
+  </si>
+  <si>
+    <t>Burn</t>
+  </si>
+  <si>
+    <t>Combust</t>
+  </si>
+  <si>
+    <t>Your attacks combust on hit (successful or not) dealing an extra 1d6 fire damage to anyone in touch range of the target, including you.</t>
+  </si>
+  <si>
+    <t>Alter Weapon</t>
+  </si>
+  <si>
+    <t>The weapon changes to a two weapon glaive. It has the normal attributs of a glaive, but deals fire damage.</t>
+  </si>
+  <si>
+    <t>Conjure a rock hammer in your hands. The weapon has the normal attributes of a warhammer. It disappears the moment it leaves your possession. The rock can instead be used to enhance a physical weapon that deals bludgeoning damage; in this case it adds 1d8 points of bludgeoning damage to the damage roll.</t>
+  </si>
+  <si>
+    <t>Blazing Robe</t>
+  </si>
+  <si>
+    <t>You gain a blazing robe that grants resistance to cold damage.</t>
+  </si>
+  <si>
+    <t>Prestige of a Leader</t>
+  </si>
+  <si>
+    <t>Wearing the robe increases your courage score by 1.</t>
+  </si>
+  <si>
+    <t>Thermosense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can feel the temperature of all things around you, gaining thermosense in medium range. </t>
+  </si>
+  <si>
+    <t>Smoke Duplicate</t>
+  </si>
+  <si>
+    <t>Create an smoke duplicate anywhere in long range near an active fire. The image can only take the form of you. Physical interaction with the illusion reveals its true nature.</t>
+  </si>
+  <si>
+    <t>The duplicate can now move. You can choose the movement according to your will, substracting it from movement points. It cannot do damage.</t>
+  </si>
+  <si>
+    <t>The illusion can cast a single fire spell that you know, as if you were standing in its place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You summon an fire elemental that levitates above the ground. The elemental has 15 vitality and 0 armor. It is immune to sanity damage. </t>
+  </si>
+  <si>
+    <t>Attacking the elemental from touch range deals 1d4 fire damage in retaliation. This spell stacks with itself.</t>
+  </si>
+  <si>
+    <t>The elemental gains a melee slam attack that deals 1d8 points of fire damage.</t>
+  </si>
+  <si>
+    <t>Flamethrower</t>
+  </si>
+  <si>
+    <t>The elemental shoots a flamethrower, dealing 2d6 points of fire damage to anyone in a straight line in short range.</t>
+  </si>
+  <si>
+    <t>Combustion</t>
+  </si>
+  <si>
+    <t>The elemental erupts, dealing 3d8 points of fire damage to anyone in close range and killing itself.</t>
+  </si>
+  <si>
+    <t>Dragon's Breath</t>
+  </si>
+  <si>
+    <t>You fill your lungs and exhale fire in a cone in close range in front of you, dealing 1d12 points of fire damage to a target in front of you.</t>
+  </si>
+  <si>
+    <t>Burning</t>
+  </si>
+  <si>
+    <t>The target(s) are burnt, taking 1d4 fire damage at the beginning of their turn until they put out the fire (3 movement points).</t>
+  </si>
+  <si>
+    <t>Burn the target, taking 1d4 fire damage at the beginning of their turn until they put out the fire (3 movement points).</t>
+  </si>
+  <si>
+    <t>Immolate</t>
+  </si>
+  <si>
+    <t>You deal 1d4 fire damage to anyone hitting you from melee range.</t>
+  </si>
+  <si>
+    <t>You catch on fire, dealing 1d8 points of fire damage to anyone in touch range, including yourself. Your armor does not protect you from this damage.</t>
+  </si>
+  <si>
+    <t>Overheat</t>
+  </si>
+  <si>
+    <t>The damage is duplicated for each consecutive round you have overheat active</t>
+  </si>
+  <si>
+    <t>Flame Eater</t>
+  </si>
+  <si>
+    <t>You may consume a small active fire to regain 1d8 points of vitality.</t>
+  </si>
+  <si>
+    <t>Flame Dash</t>
+  </si>
+  <si>
+    <t>You can teleport in an adjacent place of an active fire in medium range.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1000,13 +1187,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1015,138 +1202,174 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1930,7 +2153,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2315,17 +2538,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B85FF9-86EC-4C22-B5CB-F0DFC46ECD98}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2333,7 +2556,7 @@
     <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" style="7" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="110.77734375" style="49" customWidth="1"/>
+    <col min="4" max="4" width="110.77734375" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2346,11 +2569,11 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>32</v>
       </c>
@@ -2360,8 +2583,8 @@
       <c r="C2" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="48" t="s">
-        <v>259</v>
+      <c r="D2" s="61" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2374,50 +2597,50 @@
       <c r="C3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="39" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="D5" s="61" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="45" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="54" t="s">
-        <v>261</v>
+      <c r="D6" s="46" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2430,7 +2653,7 @@
       <c r="C7" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="47" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2444,7 +2667,7 @@
       <c r="C8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="48" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2458,7 +2681,7 @@
       <c r="C9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="48" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2472,11 +2695,11 @@
       <c r="C10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="49" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>34</v>
       </c>
@@ -2486,7 +2709,7 @@
       <c r="C11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="48" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2500,7 +2723,7 @@
       <c r="C12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="48" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2514,7 +2737,7 @@
       <c r="C13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="48" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2528,7 +2751,7 @@
       <c r="C14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="48" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2542,7 +2765,7 @@
       <c r="C15" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="50" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2556,7 +2779,7 @@
       <c r="C16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="48" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2570,7 +2793,7 @@
       <c r="C17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="48" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2584,11 +2807,11 @@
       <c r="C18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="48" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>35</v>
       </c>
@@ -2598,7 +2821,7 @@
       <c r="C19" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="48" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2612,11 +2835,11 @@
       <c r="C20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="48" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
         <v>36</v>
       </c>
@@ -2626,7 +2849,7 @@
       <c r="C21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="47" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2640,11 +2863,11 @@
       <c r="C22" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="48" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
         <v>36</v>
       </c>
@@ -2654,7 +2877,7 @@
       <c r="C23" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="48" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2668,11 +2891,11 @@
       <c r="C24" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="56" t="s">
+      <c r="D24" s="48" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
         <v>36</v>
       </c>
@@ -2682,11 +2905,11 @@
       <c r="C25" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="48" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
         <v>36</v>
       </c>
@@ -2696,7 +2919,7 @@
       <c r="C26" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="48" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2710,11 +2933,11 @@
       <c r="C27" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="48" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="32" t="s">
         <v>36</v>
       </c>
@@ -2724,40 +2947,152 @@
       <c r="C28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="48" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+    <row r="29" spans="1:4" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>292</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D32" s="60" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+    <row r="33" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="D33" s="58" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="D35" s="58" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>290</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B38" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C38" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D38" s="47" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2765,10 +3100,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FE0BDF-20D0-47FD-9533-22A08949EA41}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="A1:D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2793,153 +3128,424 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
+      <c r="C2" s="62" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>29</v>
+      <c r="A4" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
+      <c r="A7" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>313</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" s="18">
+        <v>2</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="59" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>330</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="C13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>315</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>336</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>338</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>340</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="53" t="s">
+        <v>300</v>
+      </c>
+      <c r="B20" s="71">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="C20" s="53" t="s">
+        <v>317</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="62" t="s">
+        <v>300</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="62" t="s">
+        <v>300</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="C22" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="62" t="s">
+        <v>300</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="C23" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="B26" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>330</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="D28" s="72" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="B31" s="25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>31</v>
+      <c r="C31" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="D31" s="73" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -3514,7 +4120,7 @@
   <cols>
     <col min="2" max="2" width="8.88671875" style="6"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="129" style="49" customWidth="1"/>
+    <col min="4" max="4" width="129" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -3527,7 +4133,7 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3541,7 +4147,7 @@
       <c r="C2" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="39" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3549,13 +4155,13 @@
       <c r="A3" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="39" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3563,13 +4169,13 @@
       <c r="A4" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="39" t="s">
         <v>248</v>
       </c>
     </row>
@@ -3577,41 +4183,41 @@
       <c r="A5" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="39" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="39" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="39" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3625,7 +4231,7 @@
       <c r="C8" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="41" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3633,27 +4239,27 @@
       <c r="A9" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="40" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="33" t="s">
+      <c r="B10" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="40" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3667,7 +4273,7 @@
       <c r="C11" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="39" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3675,27 +4281,27 @@
       <c r="A12" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="39" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="33" t="s">
+      <c r="B13" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="40" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3709,63 +4315,63 @@
       <c r="C14" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="38" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="35" t="s">
+      <c r="B15" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="39" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="33" t="s">
+      <c r="B16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="39" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="37" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="33" t="s">
+      <c r="B17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="39" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="39" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3773,13 +4379,13 @@
       <c r="A19" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="40" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3787,41 +4393,41 @@
       <c r="A20" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="34" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="41" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="B21" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="33" t="s">
+      <c r="B21" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="40" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="B22" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="33" t="s">
+      <c r="B22" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="40" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3829,13 +4435,13 @@
       <c r="A23" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="43" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="40" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3843,18 +4449,18 @@
       <c r="A24" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="43" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="39" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3863,15 +4469,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3B1B7F-D03C-426F-B339-7A28C1FF95FF}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.109375" style="7"/>
     <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="157.109375" style="49" customWidth="1"/>
+    <col min="4" max="4" width="157.109375" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3884,7 +4490,7 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3898,7 +4504,7 @@
       <c r="C2" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="39" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3906,70 +4512,70 @@
       <c r="A3" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>275</v>
+        <v>272</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="D4" s="48" t="s">
-        <v>276</v>
+      <c r="D4" s="39" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>266</v>
+        <v>263</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="48" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="37" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="D6" s="39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>273</v>
+      <c r="C7" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3982,8 +4588,8 @@
       <c r="C8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="54" t="s">
-        <v>278</v>
+      <c r="D8" s="46" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3996,7 +4602,7 @@
       <c r="C9" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="37" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4010,7 +4616,7 @@
       <c r="C10" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="37" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4024,7 +4630,7 @@
       <c r="C11" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="37" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4038,8 +4644,8 @@
       <c r="C12" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="48" t="s">
-        <v>281</v>
+      <c r="D12" s="39" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -4052,8 +4658,8 @@
       <c r="C13" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="48" t="s">
-        <v>280</v>
+      <c r="D13" s="39" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4066,7 +4672,7 @@
       <c r="C14" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="44" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4080,7 +4686,7 @@
       <c r="C15" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="37" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4094,7 +4700,7 @@
       <c r="C16" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="37" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4108,7 +4714,7 @@
       <c r="C17" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="44" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4122,7 +4728,7 @@
       <c r="C18" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="37" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4136,7 +4742,7 @@
       <c r="C19" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="37" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4150,7 +4756,7 @@
       <c r="C20" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="37" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4164,7 +4770,7 @@
       <c r="C21" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="37" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4178,8 +4784,8 @@
       <c r="C22" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="54" t="s">
-        <v>279</v>
+      <c r="D22" s="46" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -4192,7 +4798,7 @@
       <c r="C23" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="36" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4206,7 +4812,7 @@
       <c r="C24" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="36" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4220,36 +4826,36 @@
       <c r="C25" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="36" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B26" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D26" s="60" t="s">
-        <v>268</v>
+      <c r="D26" s="52" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>271</v>
+        <v>268</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -8,26 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1221e315f04cdea4/Games/Equilibrium/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1609" documentId="14_{1D930022-276E-4669-BF78-F3F4D090395B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FCD42C7-4619-4CD8-9967-45274F6193A8}"/>
+  <xr:revisionPtr revIDLastSave="1699" documentId="14_{1D930022-276E-4669-BF78-F3F4D090395B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7C9E5C6-8D1C-442D-9A29-9D6889ADAD33}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{E38F4F22-B4D8-47C1-8A5C-4BD3FDA1BD0A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{E38F4F22-B4D8-47C1-8A5C-4BD3FDA1BD0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Soldier" sheetId="6" r:id="rId1"/>
     <sheet name="Assassin" sheetId="11" r:id="rId2"/>
-    <sheet name="Geomancer" sheetId="2" r:id="rId3"/>
-    <sheet name="Pyrokinetic" sheetId="5" r:id="rId4"/>
-    <sheet name="Aerotheurge" sheetId="4" r:id="rId5"/>
-    <sheet name="Hydrosophist" sheetId="3" r:id="rId6"/>
+    <sheet name="Aerotheurge" sheetId="4" r:id="rId3"/>
+    <sheet name="Geomancer" sheetId="2" r:id="rId4"/>
+    <sheet name="Hydrosophist" sheetId="3" r:id="rId5"/>
+    <sheet name="Pyrokinetic" sheetId="5" r:id="rId6"/>
     <sheet name="Lightweaver" sheetId="8" r:id="rId7"/>
     <sheet name="Shadowcaster" sheetId="9" r:id="rId8"/>
     <sheet name="Spiritbinder" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="4" hidden="1">Aerotheurge!$B$1:$D$18</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">Geomancer!$B$1:$D$14</definedName>
-    <definedName name="ExternalData_1" localSheetId="5" hidden="1">Hydrosophist!$B$1:$D$18</definedName>
-    <definedName name="ExternalData_1" localSheetId="3" hidden="1">Pyrokinetic!$B$1:$D$17</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">Aerotheurge!$B$1:$D$18</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">Geomancer!$B$1:$D$14</definedName>
+    <definedName name="ExternalData_1" localSheetId="4" hidden="1">Hydrosophist!$B$1:$D$18</definedName>
+    <definedName name="ExternalData_1" localSheetId="5" hidden="1">Pyrokinetic!$B$1:$D$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="358">
   <si>
     <t>Tier</t>
   </si>
@@ -258,9 +258,6 @@
     <t>You command the ground to shatter, causing an earthquake. Everyone in a long-range takes 4d12 points of bludgeoning damage and is knocked prone.</t>
   </si>
   <si>
-    <t>You gain +1 natural armor. This spell stacks with itself.</t>
-  </si>
-  <si>
     <t>Ally</t>
   </si>
   <si>
@@ -270,9 +267,6 @@
     <t>You can burrow in the surface of the earth (or rock) and move through it. You expend your movements points as usual.</t>
   </si>
   <si>
-    <t>Rock Hammer</t>
-  </si>
-  <si>
     <t>Lacerate</t>
   </si>
   <si>
@@ -504,9 +498,6 @@
     <t>Sand Bullet</t>
   </si>
   <si>
-    <t>Catapult</t>
-  </si>
-  <si>
     <t>Flick your finger and shoot a small sand bullet in mid-range, dealing 2d4 points of piercing damage.</t>
   </si>
   <si>
@@ -837,15 +828,6 @@
     <t>Conjure an incorporeal scythe made of pure darkness. The weapon has the normal attributes of a scythe. It disappears the moment it leaves your possession. The shadow can instead be used to enhance a melee corporeal weapon; in this case shadow scythe does not grant any bonuses, but its enhancements can be used on the melee or finesse attacks made with the weapon.  You cannot use the melee of finesse attack enhancements unless the shadow scythe is applied to an actual weapon.</t>
   </si>
   <si>
-    <t>Your attacks push the target 3m away from you.</t>
-  </si>
-  <si>
-    <t>You can use the hammer to toss rocks in medium range. The rocks shatters in pieces upon impact, dealing 2d8 bludgeoning damage to the target.</t>
-  </si>
-  <si>
-    <t>Cripple the target, slowing it for one round.</t>
-  </si>
-  <si>
     <t>Sand Burst</t>
   </si>
   <si>
@@ -945,9 +927,6 @@
     <t>The elemental gains a melee slam attack that deals 1d8 points of bludgeoning damage.</t>
   </si>
   <si>
-    <t>Each time your hammer hits, it emits a cloud of sand in the target’s eyes to blind them (Intelligence vs Dexterity contest) until the beginning of your next turn.</t>
-  </si>
-  <si>
     <t>Pyro1</t>
   </si>
   <si>
@@ -972,9 +951,6 @@
     <t>Fire Orb</t>
   </si>
   <si>
-    <t>Conjure a small flaming scimitar in your hands. The weapon has the normal attributes of a scimitar, but deals fire damage. It disappears the moment it leaves your possession. The flames can instead be used to enhance a physical weapon; in this case it adds 1d8 points of fire damage to the damage roll.</t>
-  </si>
-  <si>
     <t>Burn</t>
   </si>
   <si>
@@ -987,12 +963,6 @@
     <t>Alter Weapon</t>
   </si>
   <si>
-    <t>The weapon changes to a two weapon glaive. It has the normal attributs of a glaive, but deals fire damage.</t>
-  </si>
-  <si>
-    <t>Conjure a rock hammer in your hands. The weapon has the normal attributes of a warhammer. It disappears the moment it leaves your possession. The rock can instead be used to enhance a physical weapon that deals bludgeoning damage; in this case it adds 1d8 points of bludgeoning damage to the damage roll.</t>
-  </si>
-  <si>
     <t>Blazing Robe</t>
   </si>
   <si>
@@ -1084,19 +1054,118 @@
   </si>
   <si>
     <t>You can teleport in an adjacent place of an active fire in medium range.</t>
+  </si>
+  <si>
+    <t>Hydr1</t>
+  </si>
+  <si>
+    <t>Chill Touch</t>
+  </si>
+  <si>
+    <t>The weapon changes to a two weapon glaive. It has the normal attributes of a glaive, but deals fire damage.</t>
+  </si>
+  <si>
+    <t>Coat your arm or a melee weapon you wield in fire, adding 1d6 points of fire damage to the damage roll.</t>
+  </si>
+  <si>
+    <t>Hydr2</t>
+  </si>
+  <si>
+    <t>Hydr3</t>
+  </si>
+  <si>
+    <t>Ice Spikes</t>
+  </si>
+  <si>
+    <t>Coat your arm or a melee weapon you wield in ice, dealing an extra 1d6 points of frost damage.</t>
+  </si>
+  <si>
+    <t>You form ice spikes on the frozen surface, dealing an extra 1d6 points of piercing damage.</t>
+  </si>
+  <si>
+    <t>Ice Shards</t>
+  </si>
+  <si>
+    <t>You form ice shards on the frozen surface, dealing an extra 1d6 points of slashing damage.</t>
+  </si>
+  <si>
+    <t>Thin ice spreads on the target's body, slowing them until the end of their turn.  This effect only applies if the attack is successful (deals at least 1 point of damage).</t>
+  </si>
+  <si>
+    <t>Cripple the target, slowing them until the end of their turn. This effect only applies if the attack is successful (deals at least 1 point of damage).</t>
+  </si>
+  <si>
+    <t>Frost Statue</t>
+  </si>
+  <si>
+    <t>Coat your arm or a melee bludgeoning weapon you wield in stone, adding 1d6 points of bludgeoning damage to the damage roll.</t>
+  </si>
+  <si>
+    <t>Your attacks push the target 3m away from you. This effect only applies if the attack is successful.</t>
+  </si>
+  <si>
+    <t>Stoneskin</t>
+  </si>
+  <si>
+    <t>The point of impact emits a cloud of sand in the target’s eyes to blind them (Intelligence vs Dexterity contest) until the end of their turn. This effect only applies if the attack is successful (deals at least 1 point of damage), and does not apply on the current attack.</t>
+  </si>
+  <si>
+    <t>Flick your finger and shoot a small sand bullet in short range, dealing 2d4 points of piercing damage.</t>
+  </si>
+  <si>
+    <t>Spinning Sand</t>
+  </si>
+  <si>
+    <t>The sand spins rapidly inside the wound, dealing 1d4 points of bleeding damage, at the start of the target's next turn. This effect only applies if the attack is successful (deals at least 1 point of damage).</t>
+  </si>
+  <si>
+    <t>Sand Prison</t>
+  </si>
+  <si>
+    <t>The target becomes restrained for this turn. In order to apply this effect, the target needs to have at least one bullet for every 10 points of maximum vitality already inside their body.</t>
+  </si>
+  <si>
+    <t>Piercing Bullet</t>
+  </si>
+  <si>
+    <t>The bullet pierces the target's body, dealing 1d8 points of bleeding damage at the start of the target's next turn. This effect only applies if the attack is successful (deals at least 1 point of damage). Piercing bullets leave the target's body and do not count for the effects of sand prison.</t>
+  </si>
+  <si>
+    <t>You gain +1 natural armor. This spell stacks with itself. This spell immediately stops any bleeding effects on the target. The initial bleeding damage dealt at the start of the target's turn still applies.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1187,13 +1256,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1202,174 +1271,172 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1740,10 +1807,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1757,7 +1824,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1768,10 +1835,10 @@
         <v>28</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1782,10 +1849,10 @@
         <v>28</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1796,10 +1863,10 @@
         <v>28</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1813,7 +1880,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1838,10 +1905,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -1849,13 +1916,13 @@
         <v>20</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1869,7 +1936,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1883,7 +1950,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -1894,10 +1961,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1908,10 +1975,10 @@
         <v>28</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1922,10 +1989,10 @@
         <v>29</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1936,10 +2003,10 @@
         <v>29</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1950,10 +2017,10 @@
         <v>29</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1964,10 +2031,10 @@
         <v>30</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -1978,10 +2045,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1992,10 +2059,10 @@
         <v>29</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2006,10 +2073,10 @@
         <v>29</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2020,15 +2087,15 @@
         <v>29</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>48</v>
@@ -2042,7 +2109,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>28</v>
@@ -2051,12 +2118,12 @@
         <v>8</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>29</v>
@@ -2065,12 +2132,12 @@
         <v>7</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>29</v>
@@ -2079,12 +2146,12 @@
         <v>9</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>29</v>
@@ -2098,21 +2165,21 @@
     </row>
     <row r="29" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C29" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>195</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>29</v>
@@ -2121,12 +2188,12 @@
         <v>13</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>25</v>
@@ -2135,25 +2202,25 @@
         <v>15</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2163,7 +2230,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2189,189 +2256,189 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B13" s="10">
         <v>2</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>28</v>
@@ -2380,68 +2447,68 @@
         <v>8</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>30</v>
@@ -2455,77 +2522,77 @@
     </row>
     <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B21" s="21">
         <v>1</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>136</v>
-      </c>
       <c r="D22" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>29</v>
@@ -2534,21 +2601,206 @@
         <v>14</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CA879A-B40D-4250-A237-E1E2030DB8DC}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="162" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B85FF9-86EC-4C22-B5CB-F0DFC46ECD98}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2573,21 +2825,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="25">
         <v>1</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="67" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>32</v>
       </c>
@@ -2595,10 +2847,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>261</v>
+        <v>74</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2609,10 +2861,10 @@
         <v>28</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>259</v>
+        <v>67</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2623,27 +2875,13 @@
         <v>29</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>33</v>
       </c>
@@ -2653,8 +2891,8 @@
       <c r="C7" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="47" t="s">
-        <v>66</v>
+      <c r="D7" s="72" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2667,7 +2905,7 @@
       <c r="C8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="47" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2679,10 +2917,10 @@
         <v>28</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>214</v>
+        <v>66</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2695,7 +2933,7 @@
       <c r="C10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="48" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2709,8 +2947,8 @@
       <c r="C11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="48" t="s">
-        <v>215</v>
+      <c r="D11" s="47" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2721,10 +2959,10 @@
         <v>28</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>214</v>
+        <v>66</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2737,7 +2975,7 @@
       <c r="C13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="47" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2751,7 +2989,7 @@
       <c r="C14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="47" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2765,8 +3003,8 @@
       <c r="C15" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="50" t="s">
-        <v>216</v>
+      <c r="D15" s="49" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -2779,7 +3017,7 @@
       <c r="C16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="47" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2793,7 +3031,7 @@
       <c r="C17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="47" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2807,7 +3045,7 @@
       <c r="C18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="47" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2821,7 +3059,7 @@
       <c r="C19" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="47" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2835,8 +3073,8 @@
       <c r="C20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="48" t="s">
-        <v>69</v>
+      <c r="D20" s="47" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2849,8 +3087,8 @@
       <c r="C21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="47" t="s">
-        <v>208</v>
+      <c r="D21" s="46" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2863,7 +3101,7 @@
       <c r="C22" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="47" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2877,8 +3115,8 @@
       <c r="C23" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="48" t="s">
-        <v>209</v>
+      <c r="D23" s="47" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2891,7 +3129,7 @@
       <c r="C24" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="47" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2903,10 +3141,10 @@
         <v>29</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -2919,8 +3157,8 @@
       <c r="C26" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="48" t="s">
-        <v>210</v>
+      <c r="D26" s="47" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2928,12 +3166,12 @@
         <v>36</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="47" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2947,163 +3185,428 @@
       <c r="C28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="47" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="3" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="D34" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="D29" s="52" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="D35" s="42" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="59" t="s">
-        <v>292</v>
-      </c>
-      <c r="D31" s="58" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="B32" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="59" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="69" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>351</v>
+      </c>
+      <c r="D38" s="70" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="67" t="s">
+        <v>355</v>
+      </c>
+      <c r="D40" s="70" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="67" t="s">
+        <v>353</v>
+      </c>
+      <c r="D41" s="70" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="68" t="s">
+        <v>274</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="60" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="B33" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="54" t="s">
-        <v>284</v>
-      </c>
-      <c r="D33" s="58" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="B34" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="54" t="s">
-        <v>286</v>
-      </c>
-      <c r="D34" s="58" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="B35" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="54" t="s">
-        <v>288</v>
-      </c>
-      <c r="D35" s="58" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="B36" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="54" t="s">
-        <v>290</v>
-      </c>
-      <c r="D36" s="58" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="53" t="s">
-        <v>280</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="D37" s="50" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>150</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F238E910-D914-4D4C-A788-988211E98D3B}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="162" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>336</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>337</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>337</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>337</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>337</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FE0BDF-20D0-47FD-9533-22A08949EA41}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3128,149 +3631,149 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B2" s="25">
         <v>1</v>
       </c>
-      <c r="C2" s="62" t="s">
-        <v>303</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>304</v>
+      <c r="C2" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="62" t="s">
-        <v>305</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>332</v>
+      <c r="C3" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="62" t="s">
-        <v>306</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>307</v>
+      <c r="C4" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>308</v>
+        <v>289</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>300</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>311</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>312</v>
+        <v>290</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>334</v>
+      <c r="C7" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>214</v>
+        <v>66</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="B9" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>313</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>314</v>
+        <v>290</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B10" s="18">
         <v>2</v>
       </c>
-      <c r="C10" s="53" t="s">
-        <v>328</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
-        <v>298</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>330</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>331</v>
+      <c r="C10" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>29</v>
@@ -3278,13 +3781,13 @@
       <c r="C12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="47" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>30</v>
@@ -3292,630 +3795,260 @@
       <c r="C13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="47" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>316</v>
+      <c r="C14" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>334</v>
+      <c r="C15" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="62" t="s">
-        <v>333</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>335</v>
+      <c r="C16" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="62" t="s">
-        <v>336</v>
-      </c>
-      <c r="D17" s="61" t="s">
-        <v>337</v>
+      <c r="C17" s="53" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="62" t="s">
-        <v>338</v>
-      </c>
-      <c r="D18" s="61" t="s">
-        <v>339</v>
+      <c r="C18" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>340</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>341</v>
+        <v>292</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="53" t="s">
-        <v>300</v>
-      </c>
-      <c r="B20" s="71">
+      <c r="A20" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="B20" s="63">
         <v>1</v>
       </c>
-      <c r="C20" s="53" t="s">
-        <v>317</v>
-      </c>
-      <c r="D20" s="66" t="s">
-        <v>318</v>
+      <c r="C20" s="52" t="s">
+        <v>307</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="62" t="s">
-        <v>300</v>
+      <c r="A21" s="53" t="s">
+        <v>293</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>319</v>
+        <v>95</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="62" t="s">
-        <v>300</v>
+      <c r="A22" s="53" t="s">
+        <v>293</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62" t="s">
-        <v>300</v>
+      <c r="A23" s="53" t="s">
+        <v>293</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="53" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="55" t="s">
-        <v>301</v>
-      </c>
-      <c r="B24" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D24" s="52" t="s">
+      <c r="D26" s="55" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="54" t="s">
-        <v>301</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="59" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="53" t="s">
         <v>282</v>
       </c>
-      <c r="D25" s="58" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="54" t="s">
-        <v>301</v>
-      </c>
-      <c r="B26" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="59" t="s">
-        <v>330</v>
-      </c>
-      <c r="D26" s="61" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54" t="s">
-        <v>301</v>
-      </c>
-      <c r="B27" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="54" t="s">
-        <v>284</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
-        <v>301</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="59" t="s">
-        <v>324</v>
-      </c>
-      <c r="D28" s="72" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="54" t="s">
-        <v>301</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="58" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="54" t="s">
-        <v>301</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="54" t="s">
-        <v>288</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>302</v>
+      <c r="D30" s="42" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="54" t="s">
-        <v>301</v>
+      <c r="A31" s="53" t="s">
+        <v>294</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="54" t="s">
-        <v>326</v>
-      </c>
-      <c r="D31" s="73" t="s">
-        <v>327</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CA879A-B40D-4250-A237-E1E2030DB8DC}">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C2:D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="162" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F238E910-D914-4D4C-A788-988211E98D3B}">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C2:D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="162" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>31</v>
+      <c r="C31" s="53" t="s">
+        <v>316</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -4139,119 +4272,119 @@
     </row>
     <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B2" s="25">
         <v>1</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B8" s="30">
         <v>1</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>28</v>
@@ -4260,152 +4393,152 @@
         <v>45</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B14" s="30">
         <v>1</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B20" s="34" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B21" s="33" t="s">
         <v>29</v>
@@ -4414,53 +4547,53 @@
         <v>45</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B23" s="43" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B24" s="43" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4496,366 +4629,366 @@
     </row>
     <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="25">
         <v>1</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>276</v>
+        <v>103</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" s="25">
         <v>1</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B15" s="25">
         <v>1</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="37" t="s">
         <v>106</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>277</v>
+        <v>109</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="36" t="s">
         <v>166</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>139</v>
+        <v>259</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>137</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
